--- a/spécification fonctionnelle NAPI comments.xlsx
+++ b/spécification fonctionnelle NAPI comments.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleve7\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\Cours Laravel\napi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="42936" windowHeight="21456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="42936" windowHeight="21456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrice" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>Nom de l'intégrateur</t>
   </si>
@@ -135,48 +135,24 @@
     <t>article_id</t>
   </si>
   <si>
-    <t>coomment</t>
-  </si>
-  <si>
     <t>référence id de la table articles, id article</t>
   </si>
   <si>
-    <t xml:space="preserve">commantaire </t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>CommentsControler</t>
-  </si>
-  <si>
-    <t>monSite/Comments</t>
-  </si>
-  <si>
     <t>Comments.blade.php</t>
   </si>
   <si>
-    <t>monSite/Comments/new</t>
-  </si>
-  <si>
-    <t>monSite/Comments/{userID}</t>
-  </si>
-  <si>
     <t>Comment-form.blade.php</t>
   </si>
   <si>
     <t>Comment-create-confirmation.blade.php</t>
   </si>
   <si>
-    <t>monSite/Comments/{CommentID}</t>
-  </si>
-  <si>
     <t>Comment.blade.php</t>
   </si>
   <si>
-    <t>monSite/Comments/{CommentID}/edit</t>
-  </si>
-  <si>
     <t>Comment-update-confirmation.blade.php</t>
   </si>
   <si>
@@ -186,28 +162,61 @@
     <t>CHANSAUD Gaby / TAIE Parea</t>
   </si>
   <si>
-    <t>Afficher la liste des commantaires du site</t>
-  </si>
-  <si>
-    <t>Afficher le formulaire de création d'un nouveau commantaire</t>
-  </si>
-  <si>
-    <t>Créer un nouveau commantaire</t>
-  </si>
-  <si>
-    <t>Afficher un commantaire</t>
-  </si>
-  <si>
-    <t>Modifier un commantaire</t>
-  </si>
-  <si>
     <t>Mettre à jour un commantaire</t>
   </si>
   <si>
-    <t>Supprimer un commantaire</t>
-  </si>
-  <si>
-    <t>Afficher la liste des commantaires d'un user précis (userId)</t>
+    <t>articleComments</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commentaire </t>
+  </si>
+  <si>
+    <t>Confirmation du commentaire créer</t>
+  </si>
+  <si>
+    <t>Création d'un nouveau commantaire</t>
+  </si>
+  <si>
+    <t>Afficher un commentaire</t>
+  </si>
+  <si>
+    <t>Modifier un commentaire</t>
+  </si>
+  <si>
+    <t>Supprimer un commentaire</t>
+  </si>
+  <si>
+    <t>Afficher la liste des commantaires d'un article</t>
+  </si>
+  <si>
+    <t>Afficher la liste des commentaires d'un user précis (userId)</t>
+  </si>
+  <si>
+    <t>monSite/comments</t>
+  </si>
+  <si>
+    <t>monSite/comment/new</t>
+  </si>
+  <si>
+    <t>monSite/comment/{commentID}</t>
+  </si>
+  <si>
+    <t>monSite/comment</t>
+  </si>
+  <si>
+    <t>monSite/comment/{commentID}/edit</t>
+  </si>
+  <si>
+    <t>monSite/comment/{CommentID}</t>
+  </si>
+  <si>
+    <t>monSite/comment/{userID}</t>
+  </si>
+  <si>
+    <t>CommentControler</t>
   </si>
 </sst>
 </file>
@@ -829,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -895,31 +904,31 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -931,16 +940,16 @@
         <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -952,16 +961,16 @@
         <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -973,16 +982,16 @@
         <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -994,16 +1003,16 @@
         <v>13</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1015,16 +1024,16 @@
         <v>14</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1036,16 +1045,16 @@
         <v>16</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1057,16 +1066,16 @@
         <v>20</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1084,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1108,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1133,7 +1142,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1149,13 +1158,13 @@
     </row>
     <row r="8" spans="2:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
